--- a/medicine/Enfance/Guy_Sabran/Guy_Sabran.xlsx
+++ b/medicine/Enfance/Guy_Sabran/Guy_Sabran.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Guy Sabran, né Guy Marie Louis Sabran, né à Saint-Rambert-l'Île-Barbe le 26 juillet 1902 et mort à Clamart le 5 février 1984), est un auteur et illustrateur de livres pour enfants. 
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Issu d'une famille de sept enfants, il a pour frère Jean Sabran, connu sous le pseudonyme de Paul Berna auteur également de livres pour enfants. Son père Paul meurt au Front en 1914 au début de la Première Guerre mondiale. Il étudie avec son frère chez les Marianistes en Suisse à la Villa Saint-Jean à Fribourg.
 Excellent aquarelliste, il réalise les couvertures d'un magazine automobile:  L’action automobile touristique. Il illustre également pour la société Calberson son Encyclopédie de la Locomotion. Il illustre de nombreux livres, dont ceux de son frère ou de sa belle-sœur Jany Saint-Marcoux, pour les éditions G. P.
@@ -545,8 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Albums pour enfants
-Blanche-Neige et autres contes, éditions G. P., collection Bibliothèque Rouge et bleue, 1949
+          <t>Albums pour enfants</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Blanche-Neige et autres contes, éditions G. P., collection Bibliothèque Rouge et bleue, 1949
 Ali Baba et les quarante voleurs, G.P., Bibliothèque de la Bénédictine, 1950
 Les Aventures du baron de Crac, G.P., Bibliothèque Rouge et bleue, 1950
 Le Roman de Renart, fabliaux du Moyen Age, G.P., Bibliothèque Rouge et bleue, 1950 et 1960
@@ -575,9 +594,43 @@
 Le Livre de Zoupette. G.P., 1949
 Zoupette à la mer. G.P., 1949
 Zoupette en camping. Texte de Jean Sabran. illustrations de Guy Sabran, G.P., 1950
-Zoupette au Maroc. G.P., 1954
-Romans pour la jeunesse
-Collection Bibliothèque Rouge et Or (éditions G. P.)
+Zoupette au Maroc. G.P., 1954</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Guy_Sabran</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Guy_Sabran</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Collection Bibliothèque Rouge et Or (éditions G. P.)
 1947 : Les Malheurs de Sophie de Comtesse de Ségur (no 01)
 1947 : Les Bons Enfants de Comtesse de Ségur (no 03)
 1948 : Le Général Dourakine de Comtesse de Ségur (no 06)
@@ -590,7 +643,7 @@
 1949 : Un bon petit diable de Comtesse de Ségur (no 24)
 1949 : Le Robinson suisse de Johann Rudolf Wyss (no 25)
 1949 : Graziella d'A. de Lamartine (no 29)
-1950 : Petites bonnes femmes[1] de Louisa May Alcott (no 34)
+1950 : Petites bonnes femmes de Louisa May Alcott (no 34)
 1952 : Les Patins d'argent de Mary Mapes Dodge (no 51)
 1952 : La Duchesse en pantoufles de Saint-Marcoux (no 56)
 1954 : L'Oubliée de Venise de Saint-Marcoux (no 69)
@@ -599,9 +652,43 @@
 1957 : L'Oiseau d'Afrique de Jacqueline Puissant (no 07)
 Collection « Bibliothèque Rouge et bleue » (éditions G. P.)
 1950 : Le Baron de Crac. Adaptation de Jean Sabran (no 11)
-1954 : L'Odyssée du Prince Vermeil de Henry Brocker d'Effendal (no 25)
-Romans pour adultes
-Histoire
+1954 : L'Odyssée du Prince Vermeil de Henry Brocker d'Effendal (no 25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Guy_Sabran</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Guy_Sabran</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans pour adultes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Histoire
 Brégancon : Légende de la reine Jeanne de Mireille Pradier, 1946
 Jehanne d'Arc, G. P., coll. Bibliothèque de la Bénédictine, 1950
 Bertrand Du Guesclin. Éditions J. Susse, 1950
